--- a/datamining/wordlist_khaiii_yet_modi.xlsx
+++ b/datamining/wordlist_khaiii_yet_modi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaekw\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uni61\Documents\GitHub\yooniverse\datamining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDAC179-DB0F-4FA7-BB1D-71717B43F977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B0764F-C0A0-4AB2-BB7C-50C6A5347FF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2220" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5026" uniqueCount="4687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5035" uniqueCount="4695">
   <si>
     <t>algorithm</t>
   </si>
@@ -14279,6 +14278,38 @@
       </rPr>
       <t>학습</t>
     </r>
+  </si>
+  <si>
+    <t>삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학교육</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14691,8 +14722,8 @@
   <dimension ref="A1:E4587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4576" sqref="G4576"/>
+      <pane ySplit="1" topLeftCell="A986" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E994" sqref="E994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.25"/>
@@ -16156,7 +16187,9 @@
         <v>128</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="5" t="s">
+        <v>4687</v>
+      </c>
       <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -21216,7 +21249,9 @@
       <c r="B585" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="C585" s="5"/>
+      <c r="C585" s="5" t="s">
+        <v>4692</v>
+      </c>
       <c r="D585" s="5"/>
       <c r="E585" s="5"/>
     </row>
@@ -25786,7 +25821,9 @@
       <c r="B995" s="4" t="s">
         <v>993</v>
       </c>
-      <c r="C995" s="5"/>
+      <c r="C995" s="5" t="s">
+        <v>4694</v>
+      </c>
       <c r="D995" s="5"/>
       <c r="E995" s="5"/>
     </row>
@@ -27096,7 +27133,9 @@
       <c r="B1113" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="C1113" s="5"/>
+      <c r="C1113" s="5" t="s">
+        <v>4690</v>
+      </c>
       <c r="D1113" s="5"/>
       <c r="E1113" s="5"/>
     </row>
@@ -28465,7 +28504,9 @@
       <c r="B1236" s="4" t="s">
         <v>1234</v>
       </c>
-      <c r="C1236" s="5"/>
+      <c r="C1236" s="5" t="s">
+        <v>4688</v>
+      </c>
       <c r="D1236" s="5"/>
       <c r="E1236" s="5"/>
     </row>
@@ -37587,7 +37628,9 @@
       <c r="B2052" s="4" t="s">
         <v>2050</v>
       </c>
-      <c r="C2052" s="5"/>
+      <c r="C2052" s="5" t="s">
+        <v>4691</v>
+      </c>
       <c r="D2052" s="5"/>
       <c r="E2052" s="5"/>
     </row>
@@ -51032,7 +51075,9 @@
         <v>3247</v>
       </c>
       <c r="C3250" s="5"/>
-      <c r="D3250" s="5"/>
+      <c r="D3250" s="5" t="s">
+        <v>4687</v>
+      </c>
       <c r="E3250" s="5"/>
     </row>
     <row r="3251" spans="1:5" x14ac:dyDescent="0.45">
@@ -65029,7 +65074,9 @@
       <c r="B4498" s="4" t="s">
         <v>4492</v>
       </c>
-      <c r="C4498" s="5"/>
+      <c r="C4498" s="5" t="s">
+        <v>4693</v>
+      </c>
       <c r="D4498" s="5"/>
       <c r="E4498" s="5"/>
     </row>
@@ -65802,7 +65849,9 @@
       <c r="B4567" s="4" t="s">
         <v>4559</v>
       </c>
-      <c r="C4567" s="5"/>
+      <c r="C4567" s="5" t="s">
+        <v>4689</v>
+      </c>
       <c r="D4567" s="5"/>
       <c r="E4567" s="5"/>
     </row>
